--- a/resources/reports/feedback_all_prefix_1_Does Ginkgo Biloba treat tinnitus.xlsx
+++ b/resources/reports/feedback_all_prefix_1_Does Ginkgo Biloba treat tinnitus.xlsx
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1310,7 @@
         <f>B3/F3</f>
         <v>0.17647058823529413</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f>C3/F3</f>
         <v>0.41176470588235292</v>
       </c>
